--- a/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DB8AAE-029E-41C4-BCD5-0378D631EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39AABE18-87B2-42B6-A6AB-3708ACC1A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DF2EBC6-6DCE-47D4-870B-2EBC9248F1D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90735328-14D8-4633-AB9D-B5B3B516EB2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>65,09%</t>
   </si>
   <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,45%</t>
+    <t>38,77%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
@@ -134,10 +134,10 @@
     <t>23,46%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,10 +149,10 @@
     <t>13,1%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,70 +164,70 @@
     <t>75,56%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>13,88%</t>
@@ -236,7 +236,7 @@
     <t>9,94%</t>
   </si>
   <si>
-    <t>17,49%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -245,160 +245,160 @@
     <t>85,66%</t>
   </si>
   <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>12,98%</t>
+    <t>7,92%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E16C25-2139-4831-AC8F-EDABA0593BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D28E0F-44C6-441C-8BBA-9A139799E696}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,10 +1624,10 @@
         <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>

--- a/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39AABE18-87B2-42B6-A6AB-3708ACC1A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{989492B9-D52A-4D52-A44F-E5CFC55A8B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90735328-14D8-4633-AB9D-B5B3B516EB2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B4C18F9-DEF9-4303-AE3F-9DB93F7BC6F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D28E0F-44C6-441C-8BBA-9A139799E696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8054A1-18B9-4ABB-AC7C-E07133C7B379}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{989492B9-D52A-4D52-A44F-E5CFC55A8B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CE5D472-B39E-4711-A790-7F810BABDB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B4C18F9-DEF9-4303-AE3F-9DB93F7BC6F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7B03718-6C6F-46F3-8948-93D8FAEFCB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>65,09%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,77%</t>
+    <t>31,45%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
@@ -134,10 +134,10 @@
     <t>23,46%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,10 +149,10 @@
     <t>13,1%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,70 +164,70 @@
     <t>75,56%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>13,88%</t>
@@ -236,7 +236,7 @@
     <t>9,94%</t>
   </si>
   <si>
-    <t>17,53%</t>
+    <t>17,49%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -245,160 +245,160 @@
     <t>85,66%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>7,92%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8054A1-18B9-4ABB-AC7C-E07133C7B379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23491863-5500-4827-82DB-30A59AA1D83F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,10 +1624,10 @@
         <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>

--- a/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CE5D472-B39E-4711-A790-7F810BABDB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59272E7A-2544-44D0-A270-A38C09B0388A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7B03718-6C6F-46F3-8948-93D8FAEFCB8E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2063B3BB-6476-41FA-BDAB-9430BC8A825D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,73 +71,73 @@
     <t>No</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>Sí, parcialmente</t>
   </si>
   <si>
-    <t>11,45%</t>
+    <t>13,9%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>38,38%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>Sí, totalmente</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>0%</t>
@@ -146,259 +146,259 @@
     <t>7,32%</t>
   </si>
   <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23491863-5500-4827-82DB-30A59AA1D83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C85274B-157A-42BD-AB07-212C6D5AB6B7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -934,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>15313</v>
+        <v>15107</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>16509</v>
+        <v>14874</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -964,7 +964,7 @@
         <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>31823</v>
+        <v>29982</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2694</v>
+        <v>3332</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1000,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>2101</v>
+        <v>1911</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1015,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>4796</v>
+        <v>5243</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1036,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>5518</v>
+        <v>5541</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>5519</v>
+        <v>5541</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1087,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>23526</v>
+        <v>23981</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -1102,7 +1102,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>18610</v>
+        <v>16785</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -1117,7 +1117,7 @@
         <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>42137</v>
+        <v>40766</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -1140,7 +1140,7 @@
         <v>168</v>
       </c>
       <c r="D8" s="7">
-        <v>237281</v>
+        <v>426554</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1155,7 +1155,7 @@
         <v>238</v>
       </c>
       <c r="I8" s="7">
-        <v>178382</v>
+        <v>165719</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1170,7 +1170,7 @@
         <v>406</v>
       </c>
       <c r="N8" s="7">
-        <v>415663</v>
+        <v>592273</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1191,7 +1191,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>36126</v>
+        <v>35180</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1206,7 +1206,7 @@
         <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>27637</v>
+        <v>26019</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1221,16 +1221,16 @@
         <v>76</v>
       </c>
       <c r="N9" s="7">
-        <v>63764</v>
+        <v>61199</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1242,46 +1242,46 @@
         <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>40619</v>
+        <v>38601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>36670</v>
+        <v>33170</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>77289</v>
+        <v>71771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>314026</v>
+        <v>500335</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -1308,7 +1308,7 @@
         <v>326</v>
       </c>
       <c r="I11" s="7">
-        <v>242689</v>
+        <v>224908</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -1323,7 +1323,7 @@
         <v>565</v>
       </c>
       <c r="N11" s="7">
-        <v>556715</v>
+        <v>725243</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1346,46 +1346,46 @@
         <v>92</v>
       </c>
       <c r="D12" s="7">
-        <v>101053</v>
+        <v>97868</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>154</v>
       </c>
       <c r="I12" s="7">
-        <v>114755</v>
+        <v>107492</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>246</v>
       </c>
       <c r="N12" s="7">
-        <v>215808</v>
+        <v>205360</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,46 +1397,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>7775</v>
+        <v>7483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>11836</v>
+        <v>10942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>19611</v>
+        <v>18426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,46 +1448,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>9146</v>
+        <v>8862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>15363</v>
+        <v>14382</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
       </c>
       <c r="N14" s="7">
-        <v>24509</v>
+        <v>23243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="7">
-        <v>117974</v>
+        <v>114213</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -1514,7 +1514,7 @@
         <v>189</v>
       </c>
       <c r="I15" s="7">
-        <v>141954</v>
+        <v>132816</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -1529,7 +1529,7 @@
         <v>297</v>
       </c>
       <c r="N15" s="7">
-        <v>259928</v>
+        <v>247029</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -1552,46 +1552,46 @@
         <v>275</v>
       </c>
       <c r="D16" s="7">
-        <v>353647</v>
+        <v>539529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>413</v>
       </c>
       <c r="I16" s="7">
-        <v>309646</v>
+        <v>288086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>688</v>
       </c>
       <c r="N16" s="7">
-        <v>663293</v>
+        <v>827615</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,46 +1603,46 @@
         <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>46596</v>
+        <v>45996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>41575</v>
+        <v>38872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
       </c>
       <c r="N17" s="7">
-        <v>88171</v>
+        <v>84868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,22 +1654,22 @@
         <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>55284</v>
+        <v>53004</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
       </c>
       <c r="I18" s="7">
-        <v>52033</v>
+        <v>47551</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>115</v>
@@ -1684,7 +1684,7 @@
         <v>115</v>
       </c>
       <c r="N18" s="7">
-        <v>107317</v>
+        <v>100556</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>118</v>
@@ -1705,7 +1705,7 @@
         <v>369</v>
       </c>
       <c r="D19" s="7">
-        <v>455526</v>
+        <v>638529</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -1720,7 +1720,7 @@
         <v>540</v>
       </c>
       <c r="I19" s="7">
-        <v>403254</v>
+        <v>374509</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -1735,7 +1735,7 @@
         <v>909</v>
       </c>
       <c r="N19" s="7">
-        <v>858780</v>
+        <v>1013038</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
